--- a/P12-paper.xlsx
+++ b/P12-paper.xlsx
@@ -12,11 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>Table[{i, x1[i], Derivative[1][x1][i], x2[i], Derivative[1][x2][i]} /. s, {i, targets}]</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -66,8 +62,128 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
+      <c r="A1" t="n">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>-0.19199143366315544</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>-0.6446181067445983</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-0.21378069667057517</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>-0.7017409105451183</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>-0.5941896367182189</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>-0.2455935725755331</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>-0.640176326918394</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>-0.28170983647843983</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>40.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>0.28221516225867654</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>0.3062763728454152</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>0.29402603206214</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>0.32599326682216523</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>60.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>-0.3172328641956147</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>-0.4828051385518134</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>-0.3356147376490516</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>-0.5208219696901667</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-0.0848248330311521</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-0.605816601534655</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-0.0862465963846488</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-0.6455775921042988</v>
       </c>
     </row>
   </sheetData>

--- a/P12-paper.xlsx
+++ b/P12-paper.xlsx
@@ -12,11 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>Table[{i, x1[i], Derivative[1][x1][i], x2[i], Derivative[1][x2][i]} /. s, {i, targets}]</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -66,8 +62,128 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
+      <c r="A1" t="n">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>-0.19199144633335807</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>-0.6446181095267187</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-0.21378071170869</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>-0.7017409080040177</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>-0.5941895785957143</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>-0.24559354912167441</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>-0.6401762689397413</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>-0.2817098099846506</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>40.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>0.2822151930001187</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>0.3062761788392563</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>0.2940260826017895</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>0.32599303127938895</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>60.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>-0.3172329695736394</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>-0.4828052175002972</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>-0.3356148491170696</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>-0.520822062029272</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-0.0848249018929067</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-0.6058165926349635</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-0.08624667532703799</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-0.6455776213986254</v>
       </c>
     </row>
   </sheetData>

--- a/P12-paper.xlsx
+++ b/P12-paper.xlsx
@@ -66,16 +66,16 @@
         <v>10.0</v>
       </c>
       <c r="B1" t="n">
-        <v>-0.19199144633335807</v>
+        <v>-0.19199145479642193</v>
       </c>
       <c r="C1" t="n">
-        <v>-0.6446181095267187</v>
+        <v>-0.6446180508839141</v>
       </c>
       <c r="D1" t="n">
-        <v>-0.21378071170869</v>
+        <v>-0.21378071371197918</v>
       </c>
       <c r="E1" t="n">
-        <v>-0.7017409080040177</v>
+        <v>-0.7017408219919506</v>
       </c>
     </row>
     <row r="2">
@@ -83,16 +83,16 @@
         <v>20.0</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.5941895785957143</v>
+        <v>-0.5941895891146187</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.24559354912167441</v>
+        <v>-0.24559338408473208</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.6401762689397413</v>
+        <v>-0.6401762819950133</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.2817098099846506</v>
+        <v>-0.2817095333580588</v>
       </c>
     </row>
     <row r="3">
@@ -100,16 +100,16 @@
         <v>40.0</v>
       </c>
       <c r="B3" t="n">
-        <v>0.2822151930001187</v>
+        <v>0.2822152162654881</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3062761788392563</v>
+        <v>0.30627636458042595</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2940260826017895</v>
+        <v>0.2940261003118884</v>
       </c>
       <c r="E3" t="n">
-        <v>0.32599303127938895</v>
+        <v>0.3259932190951645</v>
       </c>
     </row>
     <row r="4">
@@ -117,16 +117,16 @@
         <v>60.0</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.3172329695736394</v>
+        <v>-0.31723282525300345</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.4828052175002972</v>
+        <v>-0.48280512008256793</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.3356148491170696</v>
+        <v>-0.335614701938906</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.520822062029272</v>
+        <v>-0.5208220054055991</v>
       </c>
     </row>
     <row r="5">
@@ -134,16 +134,16 @@
         <v>100.0</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.0848249018929067</v>
+        <v>-0.08482484728214222</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.6058165926349635</v>
+        <v>-0.6058167158973717</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.08624667532703799</v>
+        <v>-0.08624660029251473</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.6455776213986254</v>
+        <v>-0.6455776412129909</v>
       </c>
     </row>
   </sheetData>
